--- a/data/trans_dic/Q17F_D_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 22,95</t>
+          <t>4,04; 23,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 20,09</t>
+          <t>1,76; 21,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 19,02</t>
+          <t>3,24; 18,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,66</t>
+          <t>1,5; 12,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 15,38</t>
+          <t>4,06; 16,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 20,71</t>
+          <t>7,52; 21,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 37,72</t>
+          <t>7,3; 37,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,42</t>
+          <t>3,89; 13,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,29</t>
+          <t>5,07; 15,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,09</t>
+          <t>6,86; 17,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 26,6</t>
+          <t>4,75; 24,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 20,37</t>
+          <t>4,21; 20,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 14,57</t>
+          <t>3,27; 15,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 12,15</t>
+          <t>2,25; 12,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 22,28</t>
+          <t>2,07; 20,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 20,0</t>
+          <t>7,51; 19,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 16,81</t>
+          <t>6,85; 17,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,66</t>
+          <t>6,41; 16,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 17,36</t>
+          <t>1,67; 15,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 16,93</t>
+          <t>7,6; 17,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 14,32</t>
+          <t>6,91; 14,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,66</t>
+          <t>5,87; 13,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 13,59</t>
+          <t>2,83; 13,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,58</t>
+          <t>4,65; 17,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 17,34</t>
+          <t>6,31; 18,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 17,54</t>
+          <t>6,25; 17,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 26,81</t>
+          <t>7,99; 25,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 22,55</t>
+          <t>10,29; 22,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 16,54</t>
+          <t>6,89; 16,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 20,24</t>
+          <t>9,42; 20,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 27,17</t>
+          <t>13,85; 26,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,11</t>
+          <t>9,54; 18,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 14,81</t>
+          <t>7,82; 14,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,93</t>
+          <t>9,05; 16,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 23,74</t>
+          <t>13,21; 24,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 23,85</t>
+          <t>7,51; 23,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 23,05</t>
+          <t>8,26; 23,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 13,98</t>
+          <t>4,43; 13,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 28,74</t>
+          <t>14,16; 29,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 21,11</t>
+          <t>8,57; 20,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,91</t>
+          <t>7,72; 17,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 14,06</t>
+          <t>4,94; 13,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,58</t>
+          <t>18,78; 29,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 20,29</t>
+          <t>9,62; 19,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 17,0</t>
+          <t>8,95; 17,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,01</t>
+          <t>5,39; 12,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 27,2</t>
+          <t>18,55; 26,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 21,54</t>
+          <t>8,66; 21,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 19,5</t>
+          <t>7,86; 20,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 22,54</t>
+          <t>9,03; 21,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,95; 33,96</t>
+          <t>19,04; 33,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,74</t>
+          <t>7,05; 18,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,8</t>
+          <t>6,17; 16,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,37; 22,15</t>
+          <t>10,34; 22,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,36; 32,44</t>
+          <t>21,14; 32,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,25</t>
+          <t>9,1; 17,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 15,85</t>
+          <t>7,89; 15,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 20,49</t>
+          <t>11,25; 19,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,46; 30,92</t>
+          <t>21,79; 30,85</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 24,3</t>
+          <t>11,19; 24,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 28,16</t>
+          <t>11,98; 27,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 21,95</t>
+          <t>9,08; 23,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 29,18</t>
+          <t>15,69; 29,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 11,12</t>
+          <t>3,57; 11,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,63</t>
+          <t>6,77; 16,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 18,28</t>
+          <t>8,14; 17,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,52; 25,12</t>
+          <t>13,96; 24,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 15,68</t>
+          <t>8,07; 15,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,49</t>
+          <t>10,84; 19,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,56</t>
+          <t>9,98; 17,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,74</t>
+          <t>16,31; 24,49</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,48</t>
+          <t>2,4; 13,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 16,71</t>
+          <t>4,55; 17,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 18,52</t>
+          <t>6,54; 18,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,88; 24,89</t>
+          <t>11,11; 26,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,23</t>
+          <t>2,84; 11,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 15,13</t>
+          <t>5,52; 14,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,59; 19,79</t>
+          <t>7,7; 19,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 20,94</t>
+          <t>11,23; 21,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,13</t>
+          <t>3,68; 10,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,27</t>
+          <t>6,2; 13,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,48; 17,24</t>
+          <t>8,2; 17,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 20,85</t>
+          <t>12,48; 20,82</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,14</t>
+          <t>9,8; 14,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,15; 15,24</t>
+          <t>10,18; 15,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,21</t>
+          <t>8,78; 13,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,56</t>
+          <t>15,31; 21,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,85</t>
+          <t>8,83; 12,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,94; 12,56</t>
+          <t>8,62; 12,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,84</t>
+          <t>10,69; 14,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,8; 21,41</t>
+          <t>14,3; 21,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,88; 13,09</t>
+          <t>9,76; 12,96</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,93</t>
+          <t>9,95; 13,12</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,31; 13,39</t>
+          <t>10,23; 13,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,33</t>
+          <t>15,51; 20,45</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil IV de 2023: &gt;15 días)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5846</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4924</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5586</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11801</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10316</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9680</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13019</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17387</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10316</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2055; 11843</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1019; 12563</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2075; 12169</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4636</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1103; 9325</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3876; 15892</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6879; 19848</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3922; 19902</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4842; 16842</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7776; 23030</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10674; 26706</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3954; 20170</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7884</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5069</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6901</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17902</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18200</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16656</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24568</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26084</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21725</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19253</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2883; 13831</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3123; 14544</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1939; 11059</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1625; 15848</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10789; 28134</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10956; 27910</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9569; 25026</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2716; 25735</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16137; 36324</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17661; 37506</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13836; 31320</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6822; 33007</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13697</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15279</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11471</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26266</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20452</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22956</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21933</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33923</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34150</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38235</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33403</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3850; 14493</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7740; 22243</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8831; 24427</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6067; 19536</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17168; 36842</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12944; 30084</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15500; 33472</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15484; 29914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23813; 46679</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24273; 46232</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27667; 51834</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24791; 45162</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15868</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12540</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24568</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19038</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21570</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14791</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38303</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30098</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37438</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27331</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>62870</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5828; 18493</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8882; 25548</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7122; 22088</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16694; 34481</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11570; 28022</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14545; 32597</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8485; 23307</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30236; 47604</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20461; 41303</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26477; 50389</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17952; 40019</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>51730; 74417</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16414</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16467</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20095</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33414</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16695</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15836</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28859</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34089</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33109</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32303</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48954</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67503</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10094; 24939</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9995; 25930</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12528; 29565</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24647; 43093</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10043; 27037</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9276; 24497</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19228; 41097</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27320; 42093</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23569; 44271</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21895; 43492</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36553; 64375</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>56377; 79814</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21232</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24714</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17734</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>21604</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9921</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16119</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22522</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21272</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>31153</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>40832</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40255</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>42876</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14178; 30571</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>15229; 34972</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10953; 28056</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15845; 29327</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5358; 16928</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9872; 24247</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14445; 31786</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15707; 27809</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22345; 42149</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>29572; 53837</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29746; 53397</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>34816; 52301</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5502</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10325</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12115</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12695</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9805</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16611</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21288</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>18826</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15307</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>26936</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>33403</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>31522</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1967; 11253</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4918; 18437</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6823; 19565</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8200; 19202</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4459; 17974</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9959; 26800</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12834; 32841</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>13539; 25510</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8799; 25705</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>17899; 38666</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22219; 46446</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24263; 40462</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>74377</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>93880</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>88417</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>110653</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>103460</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>116882</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>138873</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>157091</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>177837</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>210762</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>227291</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>267744</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>59288; 90084</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>75938; 113125</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>71659; 109319</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>92863; 129600</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>85481; 123824</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>95519; 137801</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>118387; 162123</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>121737; 180635</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>153636; 203874</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>184530; 243251</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>196733; 258302</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>226106; 298147</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>